--- a/biology/Médecine/Auguste_Tripier/Auguste_Tripier.xlsx
+++ b/biology/Médecine/Auguste_Tripier/Auguste_Tripier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Élisabeth Philogène Tripier, né le 6 juin 1830 à Saint-Léger-Vauban (Yonne), et mort dans le 16e arrondissement de Paris le 10 septembre 1914, est un médecin gynécologue français, inventeur de l'électrothérapie.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Tripier est le fils du pharmacien militaire François Marie Tripier, qui découvrit le premier la présence d'arsenic dans les eaux thermales.
 Ayant terminé ses études, il entre comme préparateur chez Claude Bernard chez qui il reste neuf années durant lesquelles il prépare et archive les conférences du maître pour les publier aux éditions Hachette et Baillière, et plus tard d'autres préparateurs comme Mathias Duval et Albert Dastre[pas clair]. Claude Bernard et Auguste Tripier rédigent et publient ensemble le résultat de leurs travaux. Il a également la garde du laboratoire de Bernard au Collège de France et est remplacé plus tard à ce poste par Paul Bert.
-Il est le premier a préconiser le massage jusqu'à l'orgasme dans le cadre du traitement de la femme hystérique, rejoignant les remèdes d'Hippocrate. Il publie ses travaux, donnant le point de vue du gynécologue sur l'hystérie et le moyen de la traiter physiquement à l'aide de l'électricité[1].
+Il est le premier a préconiser le massage jusqu'à l'orgasme dans le cadre du traitement de la femme hystérique, rejoignant les remèdes d'Hippocrate. Il publie ses travaux, donnant le point de vue du gynécologue sur l'hystérie et le moyen de la traiter physiquement à l'aide de l'électricité.
 En 1864, il dépose sa candidature à l'Académie de médecine.
 Curieux de tout (science, politique, éducation, ethnologie), c'est un humaniste et un travailleur acharné qui restera dans le laboratoire de son ami le physicien d'Arsonval jusqu'à un âge avancé. Ses publications traitent de divers sujets médicaux.
 </t>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Claude Bernard et Auguste Tripier, Leçons sur les effets des substances toxiques et médicamenteuses, 1857, édité en 1883
 Claude Bernard et Auguste Tripier, Leçons sur la physiologie et la pathologie du système nerveux, 1858
